--- a/Improgress/2. Artifact and Deliverable/DetailDesign/DE_MessageList_Ver1.0.xlsx
+++ b/Improgress/2. Artifact and Deliverable/DetailDesign/DE_MessageList_Ver1.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\DetailDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29CF0030-B30E-40E9-906D-72CA2808230A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004E9963-0AB4-4337-806D-C6C529CDB83B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1380" yWindow="345" windowWidth="15405" windowHeight="11070" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="2" r:id="rId1"/>
@@ -1090,6 +1090,15 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1125,15 +1134,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -29540,8 +29540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29584,16 +29584,16 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="6" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="93"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="81"/>
     </row>
     <row r="3" spans="1:9" s="6" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="49">
@@ -29637,16 +29637,16 @@
       <c r="I4" s="7"/>
     </row>
     <row r="5" spans="1:9" s="6" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91" t="s">
+      <c r="A5" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="92"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="92"/>
-      <c r="H5" s="93"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="81"/>
     </row>
     <row r="6" spans="1:9" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="49">
@@ -29727,16 +29727,16 @@
       <c r="H9" s="54"/>
     </row>
     <row r="10" spans="1:9" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="91" t="s">
+      <c r="A10" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="92"/>
-      <c r="C10" s="92"/>
-      <c r="D10" s="92"/>
-      <c r="E10" s="92"/>
-      <c r="F10" s="92"/>
-      <c r="G10" s="92"/>
-      <c r="H10" s="93"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="81"/>
     </row>
     <row r="11" spans="1:9" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="64"/>
@@ -29857,16 +29857,16 @@
       <c r="H16" s="63"/>
     </row>
     <row r="17" spans="1:8" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="91" t="s">
+      <c r="A17" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="92"/>
-      <c r="C17" s="92"/>
-      <c r="D17" s="92"/>
-      <c r="E17" s="92"/>
-      <c r="F17" s="92"/>
-      <c r="G17" s="92"/>
-      <c r="H17" s="93"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="81"/>
     </row>
     <row r="18" spans="1:8" s="6" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="58">
@@ -29909,16 +29909,16 @@
       <c r="H19" s="54"/>
     </row>
     <row r="20" spans="1:8" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="91" t="s">
+      <c r="A20" s="79" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="92"/>
-      <c r="C20" s="92"/>
-      <c r="D20" s="92"/>
-      <c r="E20" s="92"/>
-      <c r="F20" s="92"/>
-      <c r="G20" s="92"/>
-      <c r="H20" s="93"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="81"/>
     </row>
     <row r="21" spans="1:8" s="6" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="58">
@@ -29962,7 +29962,7 @@
     </row>
     <row r="23" spans="1:8" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
-      <c r="B23" s="87"/>
+      <c r="B23" s="90"/>
       <c r="C23" s="14"/>
       <c r="D23" s="3"/>
       <c r="E23" s="4"/>
@@ -29972,7 +29972,7 @@
     </row>
     <row r="24" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
-      <c r="B24" s="88"/>
+      <c r="B24" s="91"/>
       <c r="C24" s="14"/>
       <c r="D24" s="3"/>
       <c r="E24" s="4"/>
@@ -29982,7 +29982,7 @@
     </row>
     <row r="25" spans="1:8" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
-      <c r="B25" s="88"/>
+      <c r="B25" s="91"/>
       <c r="C25" s="14"/>
       <c r="D25" s="3"/>
       <c r="E25" s="4"/>
@@ -29992,7 +29992,7 @@
     </row>
     <row r="26" spans="1:8" s="6" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
-      <c r="B26" s="89"/>
+      <c r="B26" s="92"/>
       <c r="C26" s="14"/>
       <c r="D26" s="3"/>
       <c r="E26" s="4"/>
@@ -30002,7 +30002,7 @@
     </row>
     <row r="27" spans="1:8" s="6" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
-      <c r="B27" s="90"/>
+      <c r="B27" s="93"/>
       <c r="C27" s="15"/>
       <c r="D27" s="3"/>
       <c r="E27" s="4"/>
@@ -30012,7 +30012,7 @@
     </row>
     <row r="28" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
-      <c r="B28" s="90"/>
+      <c r="B28" s="93"/>
       <c r="C28" s="15"/>
       <c r="D28" s="3"/>
       <c r="E28" s="4"/>
@@ -30022,7 +30022,7 @@
     </row>
     <row r="29" spans="1:8" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
-      <c r="B29" s="90"/>
+      <c r="B29" s="93"/>
       <c r="C29" s="15"/>
       <c r="D29" s="3"/>
       <c r="E29" s="4"/>
@@ -30032,7 +30032,7 @@
     </row>
     <row r="30" spans="1:8" s="6" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="87"/>
+      <c r="B30" s="90"/>
       <c r="C30" s="15"/>
       <c r="D30" s="8"/>
       <c r="E30" s="4"/>
@@ -30042,7 +30042,7 @@
     </row>
     <row r="31" spans="1:8" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
-      <c r="B31" s="88"/>
+      <c r="B31" s="91"/>
       <c r="C31" s="15"/>
       <c r="D31" s="8"/>
       <c r="E31" s="4"/>
@@ -30052,7 +30052,7 @@
     </row>
     <row r="32" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
-      <c r="B32" s="79"/>
+      <c r="B32" s="82"/>
       <c r="C32" s="16"/>
       <c r="D32" s="17"/>
       <c r="E32" s="18"/>
@@ -30062,7 +30062,7 @@
     </row>
     <row r="33" spans="1:8" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
-      <c r="B33" s="80"/>
+      <c r="B33" s="83"/>
       <c r="C33" s="16"/>
       <c r="D33" s="17"/>
       <c r="E33" s="18"/>
@@ -30072,7 +30072,7 @@
     </row>
     <row r="34" spans="1:8" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
-      <c r="B34" s="81"/>
+      <c r="B34" s="84"/>
       <c r="C34" s="16"/>
       <c r="D34" s="17"/>
       <c r="E34" s="18"/>
@@ -30082,7 +30082,7 @@
     </row>
     <row r="35" spans="1:8" s="6" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
-      <c r="B35" s="82"/>
+      <c r="B35" s="85"/>
       <c r="C35" s="16"/>
       <c r="D35" s="17"/>
       <c r="E35" s="18"/>
@@ -30092,7 +30092,7 @@
     </row>
     <row r="36" spans="1:8" s="6" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
-      <c r="B36" s="82"/>
+      <c r="B36" s="85"/>
       <c r="C36" s="16"/>
       <c r="D36" s="17"/>
       <c r="E36" s="18"/>
@@ -30102,7 +30102,7 @@
     </row>
     <row r="37" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
-      <c r="B37" s="83"/>
+      <c r="B37" s="86"/>
       <c r="C37" s="16"/>
       <c r="D37" s="17"/>
       <c r="E37" s="18"/>
@@ -30112,7 +30112,7 @@
     </row>
     <row r="38" spans="1:8" s="6" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
-      <c r="B38" s="84"/>
+      <c r="B38" s="87"/>
       <c r="C38" s="16"/>
       <c r="D38" s="17"/>
       <c r="E38" s="18"/>
@@ -30122,7 +30122,7 @@
     </row>
     <row r="39" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
-      <c r="B39" s="85"/>
+      <c r="B39" s="88"/>
       <c r="C39" s="16"/>
       <c r="D39" s="17"/>
       <c r="E39" s="18"/>
@@ -30132,7 +30132,7 @@
     </row>
     <row r="40" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
-      <c r="B40" s="85"/>
+      <c r="B40" s="88"/>
       <c r="C40" s="16"/>
       <c r="D40" s="17"/>
       <c r="E40" s="18"/>
@@ -30142,7 +30142,7 @@
     </row>
     <row r="41" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
-      <c r="B41" s="85"/>
+      <c r="B41" s="88"/>
       <c r="C41" s="16"/>
       <c r="D41" s="17"/>
       <c r="E41" s="18"/>
@@ -30152,7 +30152,7 @@
     </row>
     <row r="42" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
-      <c r="B42" s="86"/>
+      <c r="B42" s="89"/>
       <c r="C42" s="16"/>
       <c r="D42" s="17"/>
       <c r="E42" s="18"/>
@@ -30162,7 +30162,7 @@
     </row>
     <row r="43" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
-      <c r="B43" s="81"/>
+      <c r="B43" s="84"/>
       <c r="C43" s="16"/>
       <c r="D43" s="20"/>
       <c r="E43" s="18"/>
@@ -30172,7 +30172,7 @@
     </row>
     <row r="44" spans="1:8" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
-      <c r="B44" s="82"/>
+      <c r="B44" s="85"/>
       <c r="C44" s="16"/>
       <c r="D44" s="20"/>
       <c r="E44" s="18"/>
@@ -30242,11 +30242,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="A20:H20"/>
     <mergeCell ref="B32:B33"/>
     <mergeCell ref="B34:B37"/>
     <mergeCell ref="B38:B42"/>
@@ -30254,6 +30249,11 @@
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="B26:B29"/>
     <mergeCell ref="B30:B31"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="A20:H20"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30283,7 +30283,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10950550-2C91-40A6-B5DD-86EBF28A80EF}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -30327,16 +30327,16 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="93"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="81"/>
     </row>
     <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A3" s="49">
@@ -30379,16 +30379,16 @@
       <c r="H4" s="54"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="91" t="s">
+      <c r="A5" s="79" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="92"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="92"/>
-      <c r="H5" s="93"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="81"/>
     </row>
     <row r="6" spans="1:8" ht="60" x14ac:dyDescent="0.2">
       <c r="A6" s="49">
@@ -30411,16 +30411,16 @@
       <c r="H6" s="54"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="91" t="s">
+      <c r="A7" s="79" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="92"/>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="92"/>
-      <c r="H7" s="93"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="81"/>
     </row>
     <row r="8" spans="1:8" ht="60" x14ac:dyDescent="0.2">
       <c r="A8" s="49">
@@ -30443,16 +30443,16 @@
       <c r="H8" s="54"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="91" t="s">
+      <c r="A9" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="92"/>
-      <c r="C9" s="92"/>
-      <c r="D9" s="92"/>
-      <c r="E9" s="92"/>
-      <c r="F9" s="92"/>
-      <c r="G9" s="92"/>
-      <c r="H9" s="93"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="81"/>
     </row>
     <row r="10" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A10" s="49">
@@ -30555,16 +30555,16 @@
       <c r="H14" s="54"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="91" t="s">
+      <c r="A15" s="79" t="s">
         <v>85</v>
       </c>
-      <c r="B15" s="92"/>
-      <c r="C15" s="92"/>
-      <c r="D15" s="92"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="92"/>
-      <c r="G15" s="92"/>
-      <c r="H15" s="93"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="81"/>
     </row>
     <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A16" s="49">
